--- a/DSA-Questions.xlsx
+++ b/DSA-Questions.xlsx
@@ -1429,7 +1429,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1491,13 +1491,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00FF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1513,7 +1526,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1537,6 +1550,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1544,6 +1560,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1844,7 +1865,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1854,8 +1875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -1916,7 +1937,7 @@
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="7">

--- a/DSA-Questions.xlsx
+++ b/DSA-Questions.xlsx
@@ -1865,7 +1865,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1876,7 +1876,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -1923,7 +1923,7 @@
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="7">

--- a/DSA-Questions.xlsx
+++ b/DSA-Questions.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="467">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1423,6 +1423,9 @@
   </si>
   <si>
     <t>Problem No.</t>
+  </si>
+  <si>
+    <t>DONE</t>
   </si>
 </sst>
 </file>
@@ -1492,8 +1495,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
-      <color rgb="FF00FF00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1865,7 +1869,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1875,8 +1879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -1924,7 +1928,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
       <c r="D6" s="7">
         <v>1</v>
@@ -1938,7 +1942,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
       <c r="D7" s="7">
         <v>2</v>
@@ -2443,6 +2447,9 @@
       <c r="C44" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D44" s="7">
+        <v>37</v>
+      </c>
     </row>
     <row r="45" spans="1:4" ht="21">
       <c r="A45" s="8" t="s">
@@ -2454,6 +2461,9 @@
       <c r="C45" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D45" s="7">
+        <v>38</v>
+      </c>
     </row>
     <row r="46" spans="1:4" ht="21">
       <c r="A46" s="8" t="s">
@@ -2465,6 +2475,9 @@
       <c r="C46" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D46" s="7">
+        <v>39</v>
+      </c>
     </row>
     <row r="47" spans="1:4" ht="21">
       <c r="A47" s="8" t="s">
@@ -2476,6 +2489,9 @@
       <c r="C47" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D47" s="7">
+        <v>40</v>
+      </c>
     </row>
     <row r="48" spans="1:4" ht="21">
       <c r="A48" s="8" t="s">
@@ -2487,8 +2503,11 @@
       <c r="C48" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="21">
+      <c r="D48" s="7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="21">
       <c r="A49" s="8" t="s">
         <v>42</v>
       </c>
@@ -2498,8 +2517,11 @@
       <c r="C49" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="21">
+      <c r="D49" s="7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="21">
       <c r="A50" s="8" t="s">
         <v>42</v>
       </c>
@@ -2509,8 +2531,11 @@
       <c r="C50" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="21">
+      <c r="D50" s="7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="21">
       <c r="A51" s="8" t="s">
         <v>42</v>
       </c>
@@ -2520,8 +2545,11 @@
       <c r="C51" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="21">
+      <c r="D51" s="7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="21">
       <c r="A52" s="8" t="s">
         <v>42</v>
       </c>
@@ -2531,8 +2559,11 @@
       <c r="C52" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="21">
+      <c r="D52" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="21">
       <c r="A53" s="8" t="s">
         <v>42</v>
       </c>
@@ -2542,13 +2573,20 @@
       <c r="C53" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="21">
+      <c r="D53" s="7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="21">
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="1:4" ht="21">
       <c r="A55" s="5"/>
       <c r="B55" s="7"/>
       <c r="C55" s="4"/>
-    </row>
-    <row r="56" spans="1:3" ht="21">
+      <c r="D55" s="7"/>
+    </row>
+    <row r="56" spans="1:4" ht="21">
       <c r="A56" s="5" t="s">
         <v>53</v>
       </c>
@@ -2558,8 +2596,11 @@
       <c r="C56" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="21">
+      <c r="D56" s="7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="21">
       <c r="A57" s="5" t="s">
         <v>53</v>
       </c>
@@ -2569,8 +2610,11 @@
       <c r="C57" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="21">
+      <c r="D57" s="7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="21">
       <c r="A58" s="5" t="s">
         <v>53</v>
       </c>
@@ -2580,8 +2624,11 @@
       <c r="C58" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="21">
+      <c r="D58" s="7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="21">
       <c r="A59" s="5" t="s">
         <v>53</v>
       </c>
@@ -2591,8 +2638,11 @@
       <c r="C59" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="21">
+      <c r="D59" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="21">
       <c r="A60" s="5" t="s">
         <v>53</v>
       </c>
@@ -2602,8 +2652,11 @@
       <c r="C60" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="21">
+      <c r="D60" s="7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="21">
       <c r="A61" s="5" t="s">
         <v>53</v>
       </c>
@@ -2613,8 +2666,11 @@
       <c r="C61" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="21">
+      <c r="D61" s="7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="21">
       <c r="A62" s="5" t="s">
         <v>53</v>
       </c>
@@ -2624,8 +2680,11 @@
       <c r="C62" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="21">
+      <c r="D62" s="7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="21">
       <c r="A63" s="5" t="s">
         <v>53</v>
       </c>
@@ -2635,8 +2694,11 @@
       <c r="C63" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="21">
+      <c r="D63" s="7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="21">
       <c r="A64" s="5" t="s">
         <v>53</v>
       </c>
@@ -2646,8 +2708,11 @@
       <c r="C64" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="21">
+      <c r="D64" s="7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="21">
       <c r="A65" s="5" t="s">
         <v>53</v>
       </c>
@@ -2657,8 +2722,11 @@
       <c r="C65" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="21">
+      <c r="D65" s="7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="21">
       <c r="A66" s="5" t="s">
         <v>53</v>
       </c>
@@ -2668,8 +2736,11 @@
       <c r="C66" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="21">
+      <c r="D66" s="7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="21">
       <c r="A67" s="5" t="s">
         <v>53</v>
       </c>
@@ -2679,8 +2750,11 @@
       <c r="C67" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="21">
+      <c r="D67" s="7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="21">
       <c r="A68" s="5" t="s">
         <v>53</v>
       </c>
@@ -2690,8 +2764,11 @@
       <c r="C68" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="21">
+      <c r="D68" s="7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="21">
       <c r="A69" s="5" t="s">
         <v>53</v>
       </c>
@@ -2701,8 +2778,11 @@
       <c r="C69" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="21">
+      <c r="D69" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="21">
       <c r="A70" s="5" t="s">
         <v>53</v>
       </c>
@@ -2712,8 +2792,11 @@
       <c r="C70" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="21">
+      <c r="D70" s="7">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="21">
       <c r="A71" s="5" t="s">
         <v>53</v>
       </c>
@@ -2723,8 +2806,11 @@
       <c r="C71" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="21">
+      <c r="D71" s="7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="21">
       <c r="A72" s="5" t="s">
         <v>53</v>
       </c>
@@ -2734,8 +2820,11 @@
       <c r="C72" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="21">
+      <c r="D72" s="7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="21">
       <c r="A73" s="5" t="s">
         <v>53</v>
       </c>
@@ -2745,8 +2834,11 @@
       <c r="C73" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="21">
+      <c r="D73" s="7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="21">
       <c r="A74" s="5" t="s">
         <v>53</v>
       </c>
@@ -2756,8 +2848,11 @@
       <c r="C74" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="21">
+      <c r="D74" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="21">
       <c r="A75" s="5" t="s">
         <v>53</v>
       </c>
@@ -2767,8 +2862,11 @@
       <c r="C75" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="21">
+      <c r="D75" s="7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="21">
       <c r="A76" s="5" t="s">
         <v>53</v>
       </c>
@@ -2778,8 +2876,11 @@
       <c r="C76" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="21">
+      <c r="D76" s="7">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="21">
       <c r="A77" s="5" t="s">
         <v>53</v>
       </c>
@@ -2789,8 +2890,11 @@
       <c r="C77" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="21">
+      <c r="D77" s="7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="21">
       <c r="A78" s="5" t="s">
         <v>53</v>
       </c>
@@ -2800,8 +2904,11 @@
       <c r="C78" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="21">
+      <c r="D78" s="7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="21">
       <c r="A79" s="5" t="s">
         <v>53</v>
       </c>
@@ -2811,8 +2918,11 @@
       <c r="C79" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="21">
+      <c r="D79" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="21">
       <c r="A80" s="5" t="s">
         <v>53</v>
       </c>
@@ -2822,8 +2932,11 @@
       <c r="C80" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="21">
+      <c r="D80" s="7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="21">
       <c r="A81" s="5" t="s">
         <v>53</v>
       </c>
@@ -2833,8 +2946,11 @@
       <c r="C81" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="21">
+      <c r="D81" s="7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="21">
       <c r="A82" s="5" t="s">
         <v>53</v>
       </c>
@@ -2844,8 +2960,11 @@
       <c r="C82" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="21">
+      <c r="D82" s="7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="21">
       <c r="A83" s="5" t="s">
         <v>53</v>
       </c>
@@ -2855,8 +2974,11 @@
       <c r="C83" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="21">
+      <c r="D83" s="7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="21">
       <c r="A84" s="5" t="s">
         <v>53</v>
       </c>
@@ -2866,8 +2988,11 @@
       <c r="C84" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="21">
+      <c r="D84" s="7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="21">
       <c r="A85" s="5" t="s">
         <v>53</v>
       </c>
@@ -2877,8 +3002,11 @@
       <c r="C85" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="21">
+      <c r="D85" s="7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="21">
       <c r="A86" s="5" t="s">
         <v>53</v>
       </c>
@@ -2888,8 +3016,11 @@
       <c r="C86" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="21">
+      <c r="D86" s="7">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="21">
       <c r="A87" s="5" t="s">
         <v>53</v>
       </c>
@@ -2899,8 +3030,11 @@
       <c r="C87" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="21">
+      <c r="D87" s="7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="21">
       <c r="A88" s="5" t="s">
         <v>53</v>
       </c>
@@ -2910,8 +3044,11 @@
       <c r="C88" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="21">
+      <c r="D88" s="7">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="21">
       <c r="A89" s="5" t="s">
         <v>53</v>
       </c>
@@ -2921,8 +3058,11 @@
       <c r="C89" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="21">
+      <c r="D89" s="7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="21">
       <c r="A90" s="5" t="s">
         <v>53</v>
       </c>
@@ -2932,8 +3072,11 @@
       <c r="C90" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="21">
+      <c r="D90" s="7">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="21">
       <c r="A91" s="5" t="s">
         <v>53</v>
       </c>
@@ -2943,8 +3086,11 @@
       <c r="C91" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" ht="21">
+      <c r="D91" s="7">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="21">
       <c r="A92" s="5" t="s">
         <v>53</v>
       </c>
@@ -2954,8 +3100,11 @@
       <c r="C92" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" ht="21">
+      <c r="D92" s="7">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="21">
       <c r="A93" s="5" t="s">
         <v>53</v>
       </c>
@@ -2965,8 +3114,11 @@
       <c r="C93" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" ht="21">
+      <c r="D93" s="7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="21">
       <c r="A94" s="5" t="s">
         <v>53</v>
       </c>
@@ -2976,8 +3128,11 @@
       <c r="C94" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="21">
+      <c r="D94" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="21">
       <c r="A95" s="5" t="s">
         <v>53</v>
       </c>
@@ -2987,8 +3142,11 @@
       <c r="C95" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" ht="21">
+      <c r="D95" s="7">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="21">
       <c r="A96" s="5" t="s">
         <v>53</v>
       </c>
@@ -2998,8 +3156,11 @@
       <c r="C96" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" ht="21">
+      <c r="D96" s="7">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="21">
       <c r="A97" s="5" t="s">
         <v>53</v>
       </c>
@@ -3009,8 +3170,11 @@
       <c r="C97" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="21">
+      <c r="D97" s="7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="21">
       <c r="A98" s="5" t="s">
         <v>53</v>
       </c>
@@ -3020,13 +3184,20 @@
       <c r="C98" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" ht="21">
+      <c r="D98" s="7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="21">
+      <c r="D99" s="7"/>
+    </row>
+    <row r="100" spans="1:4" ht="21">
       <c r="A100" s="8"/>
       <c r="B100" s="7"/>
       <c r="C100" s="4"/>
-    </row>
-    <row r="101" spans="1:3" ht="21">
+      <c r="D100" s="7"/>
+    </row>
+    <row r="101" spans="1:4" ht="21">
       <c r="A101" s="5" t="s">
         <v>97</v>
       </c>
@@ -3036,8 +3207,11 @@
       <c r="C101" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" ht="21">
+      <c r="D101" s="7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="21">
       <c r="A102" s="5" t="s">
         <v>97</v>
       </c>
@@ -3047,8 +3221,11 @@
       <c r="C102" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" ht="21">
+      <c r="D102" s="7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="21">
       <c r="A103" s="5" t="s">
         <v>97</v>
       </c>
@@ -3058,8 +3235,11 @@
       <c r="C103" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" ht="21">
+      <c r="D103" s="7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="21">
       <c r="A104" s="5" t="s">
         <v>97</v>
       </c>
@@ -3069,8 +3249,11 @@
       <c r="C104" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" ht="21">
+      <c r="D104" s="7">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="21">
       <c r="A105" s="5" t="s">
         <v>97</v>
       </c>
@@ -3080,8 +3263,11 @@
       <c r="C105" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" ht="21">
+      <c r="D105" s="7">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="21">
       <c r="A106" s="5" t="s">
         <v>97</v>
       </c>
@@ -3091,8 +3277,11 @@
       <c r="C106" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" ht="21">
+      <c r="D106" s="7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="21">
       <c r="A107" s="5" t="s">
         <v>97</v>
       </c>
@@ -3102,8 +3291,11 @@
       <c r="C107" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" ht="21">
+      <c r="D107" s="7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="21">
       <c r="A108" s="5" t="s">
         <v>97</v>
       </c>
@@ -3113,8 +3305,11 @@
       <c r="C108" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" ht="21">
+      <c r="D108" s="7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="21">
       <c r="A109" s="5" t="s">
         <v>97</v>
       </c>
@@ -3124,8 +3319,11 @@
       <c r="C109" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" ht="21">
+      <c r="D109" s="7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="21">
       <c r="A110" s="5" t="s">
         <v>97</v>
       </c>
@@ -3135,8 +3333,11 @@
       <c r="C110" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" ht="21">
+      <c r="D110" s="7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="21">
       <c r="A111" s="5" t="s">
         <v>97</v>
       </c>
@@ -3146,8 +3347,11 @@
       <c r="C111" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" ht="21">
+      <c r="D111" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="21">
       <c r="A112" s="5" t="s">
         <v>97</v>
       </c>
@@ -3157,8 +3361,11 @@
       <c r="C112" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" ht="21">
+      <c r="D112" s="7">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="21">
       <c r="A113" s="5" t="s">
         <v>97</v>
       </c>
@@ -3168,8 +3375,11 @@
       <c r="C113" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" ht="21">
+      <c r="D113" s="7">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="21">
       <c r="A114" s="5" t="s">
         <v>97</v>
       </c>
@@ -3179,8 +3389,11 @@
       <c r="C114" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" ht="21">
+      <c r="D114" s="7">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="21">
       <c r="A115" s="5" t="s">
         <v>97</v>
       </c>
@@ -3190,8 +3403,11 @@
       <c r="C115" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" ht="21">
+      <c r="D115" s="7">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="21">
       <c r="A116" s="5" t="s">
         <v>97</v>
       </c>
@@ -3201,8 +3417,11 @@
       <c r="C116" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" ht="21">
+      <c r="D116" s="7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="21">
       <c r="A117" s="5" t="s">
         <v>97</v>
       </c>
@@ -3212,8 +3431,11 @@
       <c r="C117" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" ht="21">
+      <c r="D117" s="7">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="21">
       <c r="A118" s="5" t="s">
         <v>97</v>
       </c>
@@ -3223,8 +3445,11 @@
       <c r="C118" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" ht="21">
+      <c r="D118" s="7">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="21">
       <c r="A119" s="5" t="s">
         <v>97</v>
       </c>
@@ -3234,8 +3459,11 @@
       <c r="C119" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" ht="21">
+      <c r="D119" s="7">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="21">
       <c r="A120" s="5" t="s">
         <v>97</v>
       </c>
@@ -3245,8 +3473,11 @@
       <c r="C120" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" ht="21">
+      <c r="D120" s="7">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="21">
       <c r="A121" s="5" t="s">
         <v>97</v>
       </c>
@@ -3256,8 +3487,11 @@
       <c r="C121" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" ht="21">
+      <c r="D121" s="7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="21">
       <c r="A122" s="5" t="s">
         <v>97</v>
       </c>
@@ -3267,8 +3501,11 @@
       <c r="C122" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" ht="21">
+      <c r="D122" s="7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="21">
       <c r="A123" s="5" t="s">
         <v>97</v>
       </c>
@@ -3278,8 +3515,11 @@
       <c r="C123" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" ht="21">
+      <c r="D123" s="7">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="21">
       <c r="A124" s="5" t="s">
         <v>97</v>
       </c>
@@ -3289,8 +3529,11 @@
       <c r="C124" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" ht="21">
+      <c r="D124" s="7">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="21">
       <c r="A125" s="5" t="s">
         <v>97</v>
       </c>
@@ -3300,8 +3543,11 @@
       <c r="C125" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" ht="21">
+      <c r="D125" s="7">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="21">
       <c r="A126" s="5" t="s">
         <v>97</v>
       </c>
@@ -3311,8 +3557,11 @@
       <c r="C126" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" ht="21">
+      <c r="D126" s="7">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="21">
       <c r="A127" s="5" t="s">
         <v>97</v>
       </c>
@@ -3322,8 +3571,11 @@
       <c r="C127" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" ht="21">
+      <c r="D127" s="7">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="21">
       <c r="A128" s="5" t="s">
         <v>97</v>
       </c>
@@ -3333,8 +3585,11 @@
       <c r="C128" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" ht="21">
+      <c r="D128" s="7">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="21">
       <c r="A129" s="5" t="s">
         <v>97</v>
       </c>
@@ -3344,8 +3599,11 @@
       <c r="C129" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" ht="21">
+      <c r="D129" s="7">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="21">
       <c r="A130" s="5" t="s">
         <v>97</v>
       </c>
@@ -3355,8 +3613,11 @@
       <c r="C130" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" ht="21">
+      <c r="D130" s="7">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="21">
       <c r="A131" s="5" t="s">
         <v>97</v>
       </c>
@@ -3366,8 +3627,11 @@
       <c r="C131" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" ht="21">
+      <c r="D131" s="7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="21">
       <c r="A132" s="5" t="s">
         <v>97</v>
       </c>
@@ -3377,8 +3641,11 @@
       <c r="C132" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" ht="21">
+      <c r="D132" s="7">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="21">
       <c r="A133" s="5" t="s">
         <v>97</v>
       </c>
@@ -3388,8 +3655,11 @@
       <c r="C133" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" ht="21">
+      <c r="D133" s="7">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="21">
       <c r="A134" s="5" t="s">
         <v>97</v>
       </c>
@@ -3399,8 +3669,11 @@
       <c r="C134" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" ht="21">
+      <c r="D134" s="7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="21">
       <c r="A135" s="5" t="s">
         <v>97</v>
       </c>
@@ -3410,8 +3683,11 @@
       <c r="C135" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" ht="21">
+      <c r="D135" s="7">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="21">
       <c r="A136" s="5" t="s">
         <v>97</v>
       </c>
@@ -3421,12 +3697,18 @@
       <c r="C136" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" ht="21">
+      <c r="D136" s="7">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="21">
+      <c r="D137" s="7"/>
+    </row>
+    <row r="138" spans="1:4" ht="21">
       <c r="B138" s="7"/>
       <c r="C138" s="4"/>
     </row>
-    <row r="139" spans="1:3" ht="21">
+    <row r="139" spans="1:4" ht="21">
       <c r="A139" s="8" t="s">
         <v>134</v>
       </c>
@@ -3436,8 +3718,11 @@
       <c r="C139" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" ht="21">
+      <c r="D139" s="7">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="21">
       <c r="A140" s="8" t="s">
         <v>134</v>
       </c>
@@ -3447,8 +3732,11 @@
       <c r="C140" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" ht="21">
+      <c r="D140" s="7">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="21">
       <c r="A141" s="8" t="s">
         <v>134</v>
       </c>
@@ -3458,8 +3746,11 @@
       <c r="C141" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" ht="21">
+      <c r="D141" s="7">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="21">
       <c r="A142" s="8" t="s">
         <v>134</v>
       </c>
@@ -3469,8 +3760,11 @@
       <c r="C142" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" ht="21">
+      <c r="D142" s="7">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="21">
       <c r="A143" s="8" t="s">
         <v>134</v>
       </c>
@@ -3480,8 +3774,11 @@
       <c r="C143" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" ht="21">
+      <c r="D143" s="7">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="21">
       <c r="A144" s="8" t="s">
         <v>134</v>
       </c>
@@ -3491,8 +3788,11 @@
       <c r="C144" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" ht="21">
+      <c r="D144" s="7">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="21">
       <c r="A145" s="8" t="s">
         <v>134</v>
       </c>
@@ -3502,8 +3802,11 @@
       <c r="C145" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" ht="21">
+      <c r="D145" s="7">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="21">
       <c r="A146" s="8" t="s">
         <v>134</v>
       </c>
@@ -3513,8 +3816,11 @@
       <c r="C146" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" ht="21">
+      <c r="D146" s="7">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="21">
       <c r="A147" s="8" t="s">
         <v>134</v>
       </c>
@@ -3524,8 +3830,11 @@
       <c r="C147" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" ht="21">
+      <c r="D147" s="7">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="21">
       <c r="A148" s="8" t="s">
         <v>134</v>
       </c>
@@ -3535,8 +3844,11 @@
       <c r="C148" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" ht="21">
+      <c r="D148" s="7">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="21">
       <c r="A149" s="8" t="s">
         <v>134</v>
       </c>
@@ -3546,8 +3858,11 @@
       <c r="C149" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" ht="21">
+      <c r="D149" s="7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="21">
       <c r="A150" s="8" t="s">
         <v>134</v>
       </c>
@@ -3557,8 +3872,11 @@
       <c r="C150" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" ht="21">
+      <c r="D150" s="7">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="21">
       <c r="A151" s="8" t="s">
         <v>134</v>
       </c>
@@ -3568,8 +3886,11 @@
       <c r="C151" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" ht="21">
+      <c r="D151" s="7">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="21">
       <c r="A152" s="8" t="s">
         <v>134</v>
       </c>
@@ -3579,8 +3900,11 @@
       <c r="C152" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" ht="21">
+      <c r="D152" s="7">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="21">
       <c r="A153" s="8" t="s">
         <v>134</v>
       </c>
@@ -3590,8 +3914,11 @@
       <c r="C153" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" ht="21">
+      <c r="D153" s="7">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="21">
       <c r="A154" s="8" t="s">
         <v>134</v>
       </c>
@@ -3601,8 +3928,11 @@
       <c r="C154" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" ht="21">
+      <c r="D154" s="7">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="21">
       <c r="A155" s="8" t="s">
         <v>134</v>
       </c>
@@ -3612,8 +3942,11 @@
       <c r="C155" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" ht="21">
+      <c r="D155" s="7">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="21">
       <c r="A156" s="8" t="s">
         <v>134</v>
       </c>
@@ -3623,8 +3956,11 @@
       <c r="C156" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" ht="21">
+      <c r="D156" s="7">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="21">
       <c r="A157" s="8" t="s">
         <v>134</v>
       </c>
@@ -3634,8 +3970,11 @@
       <c r="C157" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" ht="21">
+      <c r="D157" s="7">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="21">
       <c r="A158" s="8" t="s">
         <v>134</v>
       </c>
@@ -3645,8 +3984,11 @@
       <c r="C158" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" ht="21">
+      <c r="D158" s="7">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="21">
       <c r="A159" s="8" t="s">
         <v>134</v>
       </c>
@@ -3656,8 +3998,11 @@
       <c r="C159" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" ht="21">
+      <c r="D159" s="7">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="21">
       <c r="A160" s="8" t="s">
         <v>134</v>
       </c>
@@ -3667,8 +4012,11 @@
       <c r="C160" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" ht="21">
+      <c r="D160" s="7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="21">
       <c r="A161" s="8" t="s">
         <v>134</v>
       </c>
@@ -3678,8 +4026,11 @@
       <c r="C161" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" ht="21">
+      <c r="D161" s="7">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="21">
       <c r="A162" s="8" t="s">
         <v>134</v>
       </c>
@@ -3689,8 +4040,11 @@
       <c r="C162" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" ht="21">
+      <c r="D162" s="7">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="21">
       <c r="A163" s="8" t="s">
         <v>134</v>
       </c>
@@ -3700,8 +4054,11 @@
       <c r="C163" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" ht="21">
+      <c r="D163" s="7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="21">
       <c r="A164" s="8" t="s">
         <v>134</v>
       </c>
@@ -3711,8 +4068,11 @@
       <c r="C164" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" ht="21">
+      <c r="D164" s="7">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="21">
       <c r="A165" s="8" t="s">
         <v>134</v>
       </c>
@@ -3722,8 +4082,11 @@
       <c r="C165" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" ht="21">
+      <c r="D165" s="7">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="21">
       <c r="A166" s="8" t="s">
         <v>134</v>
       </c>
@@ -3733,8 +4096,11 @@
       <c r="C166" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" ht="21">
+      <c r="D166" s="7">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="21">
       <c r="A167" s="8" t="s">
         <v>134</v>
       </c>
@@ -3744,8 +4110,11 @@
       <c r="C167" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" ht="21">
+      <c r="D167" s="7">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="21">
       <c r="A168" s="8" t="s">
         <v>134</v>
       </c>
@@ -3755,8 +4124,11 @@
       <c r="C168" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" ht="21">
+      <c r="D168" s="7">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="21">
       <c r="A169" s="8" t="s">
         <v>134</v>
       </c>
@@ -3766,8 +4138,11 @@
       <c r="C169" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" ht="21">
+      <c r="D169" s="7">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="21">
       <c r="A170" s="8" t="s">
         <v>134</v>
       </c>
@@ -3777,8 +4152,11 @@
       <c r="C170" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" ht="21">
+      <c r="D170" s="7">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="21">
       <c r="A171" s="8" t="s">
         <v>134</v>
       </c>
@@ -3788,8 +4166,11 @@
       <c r="C171" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" ht="21">
+      <c r="D171" s="7">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="21">
       <c r="A172" s="8" t="s">
         <v>134</v>
       </c>
@@ -3799,8 +4180,11 @@
       <c r="C172" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" ht="21">
+      <c r="D172" s="7">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="21">
       <c r="A173" s="8" t="s">
         <v>134</v>
       </c>
@@ -3810,8 +4194,11 @@
       <c r="C173" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" ht="21">
+      <c r="D173" s="7">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="21">
       <c r="A174" s="8" t="s">
         <v>134</v>
       </c>
@@ -3821,12 +4208,19 @@
       <c r="C174" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" ht="21">
+      <c r="D174" s="7">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="21">
+      <c r="D175" s="7"/>
+    </row>
+    <row r="176" spans="1:4" ht="21">
       <c r="B176" s="7"/>
       <c r="C176" s="4"/>
-    </row>
-    <row r="177" spans="1:3" ht="21">
+      <c r="D176" s="7"/>
+    </row>
+    <row r="177" spans="1:4" ht="21">
       <c r="A177" s="5" t="s">
         <v>171</v>
       </c>
@@ -3836,8 +4230,11 @@
       <c r="C177" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" ht="21">
+      <c r="D177" s="7">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="21">
       <c r="A178" s="5" t="s">
         <v>171</v>
       </c>
@@ -3847,8 +4244,11 @@
       <c r="C178" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" ht="21">
+      <c r="D178" s="7">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="21">
       <c r="A179" s="5" t="s">
         <v>171</v>
       </c>
@@ -3858,8 +4258,11 @@
       <c r="C179" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" ht="21">
+      <c r="D179" s="7">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="21">
       <c r="A180" s="5" t="s">
         <v>171</v>
       </c>
@@ -3869,8 +4272,11 @@
       <c r="C180" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" ht="21">
+      <c r="D180" s="7">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="21">
       <c r="A181" s="5" t="s">
         <v>171</v>
       </c>
@@ -3880,8 +4286,11 @@
       <c r="C181" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" ht="21">
+      <c r="D181" s="7">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="21">
       <c r="A182" s="5" t="s">
         <v>171</v>
       </c>
@@ -3891,8 +4300,11 @@
       <c r="C182" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" ht="21">
+      <c r="D182" s="7">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="21">
       <c r="A183" s="5" t="s">
         <v>171</v>
       </c>
@@ -3902,8 +4314,11 @@
       <c r="C183" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" ht="21">
+      <c r="D183" s="7">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="21">
       <c r="A184" s="5" t="s">
         <v>171</v>
       </c>
@@ -3913,8 +4328,11 @@
       <c r="C184" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" ht="21">
+      <c r="D184" s="7">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="21">
       <c r="A185" s="5" t="s">
         <v>171</v>
       </c>
@@ -3924,8 +4342,11 @@
       <c r="C185" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" ht="21">
+      <c r="D185" s="7">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="21">
       <c r="A186" s="5" t="s">
         <v>171</v>
       </c>
@@ -3935,8 +4356,11 @@
       <c r="C186" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" ht="21">
+      <c r="D186" s="7">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="21">
       <c r="A187" s="5" t="s">
         <v>171</v>
       </c>
@@ -3946,8 +4370,11 @@
       <c r="C187" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" ht="21">
+      <c r="D187" s="7">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="21">
       <c r="A188" s="5" t="s">
         <v>171</v>
       </c>
@@ -3957,8 +4384,11 @@
       <c r="C188" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" ht="21">
+      <c r="D188" s="7">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="21">
       <c r="A189" s="5" t="s">
         <v>171</v>
       </c>
@@ -3968,8 +4398,11 @@
       <c r="C189" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" ht="21">
+      <c r="D189" s="7">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="21">
       <c r="A190" s="5" t="s">
         <v>171</v>
       </c>
@@ -3979,8 +4412,11 @@
       <c r="C190" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" ht="21">
+      <c r="D190" s="7">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="21">
       <c r="A191" s="5" t="s">
         <v>171</v>
       </c>
@@ -3990,8 +4426,11 @@
       <c r="C191" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" ht="21">
+      <c r="D191" s="7">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="21">
       <c r="A192" s="5" t="s">
         <v>171</v>
       </c>
@@ -4001,8 +4440,11 @@
       <c r="C192" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" ht="21">
+      <c r="D192" s="7">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="21">
       <c r="A193" s="5" t="s">
         <v>171</v>
       </c>
@@ -4012,8 +4454,11 @@
       <c r="C193" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" ht="21">
+      <c r="D193" s="7">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="21">
       <c r="A194" s="5" t="s">
         <v>171</v>
       </c>
@@ -4023,8 +4468,11 @@
       <c r="C194" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" ht="21">
+      <c r="D194" s="7">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="21">
       <c r="A195" s="5" t="s">
         <v>171</v>
       </c>
@@ -4034,8 +4482,11 @@
       <c r="C195" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" ht="21">
+      <c r="D195" s="7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="21">
       <c r="A196" s="5" t="s">
         <v>171</v>
       </c>
@@ -4045,8 +4496,11 @@
       <c r="C196" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" ht="21">
+      <c r="D196" s="7">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="21">
       <c r="A197" s="5" t="s">
         <v>171</v>
       </c>
@@ -4056,8 +4510,11 @@
       <c r="C197" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" ht="21">
+      <c r="D197" s="7">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="21">
       <c r="A198" s="5" t="s">
         <v>171</v>
       </c>
@@ -4067,8 +4524,11 @@
       <c r="C198" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" ht="21">
+      <c r="D198" s="7">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="21">
       <c r="A199" s="5" t="s">
         <v>171</v>
       </c>
@@ -4078,8 +4538,11 @@
       <c r="C199" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" ht="21">
+      <c r="D199" s="7">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="21">
       <c r="A200" s="5" t="s">
         <v>171</v>
       </c>
@@ -4089,8 +4552,11 @@
       <c r="C200" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" ht="21">
+      <c r="D200" s="7">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="21">
       <c r="A201" s="5" t="s">
         <v>171</v>
       </c>
@@ -4100,8 +4566,11 @@
       <c r="C201" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" ht="21">
+      <c r="D201" s="7">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="21">
       <c r="A202" s="5" t="s">
         <v>171</v>
       </c>
@@ -4111,8 +4580,11 @@
       <c r="C202" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" ht="21">
+      <c r="D202" s="7">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="21">
       <c r="A203" s="5" t="s">
         <v>171</v>
       </c>
@@ -4122,8 +4594,11 @@
       <c r="C203" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" ht="21">
+      <c r="D203" s="7">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="21">
       <c r="A204" s="5" t="s">
         <v>171</v>
       </c>
@@ -4133,8 +4608,11 @@
       <c r="C204" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" ht="21">
+      <c r="D204" s="7">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="21">
       <c r="A205" s="5" t="s">
         <v>171</v>
       </c>
@@ -4144,8 +4622,11 @@
       <c r="C205" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" ht="21">
+      <c r="D205" s="7">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="21">
       <c r="A206" s="5" t="s">
         <v>171</v>
       </c>
@@ -4155,8 +4636,11 @@
       <c r="C206" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" ht="21">
+      <c r="D206" s="7">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="21">
       <c r="A207" s="5" t="s">
         <v>171</v>
       </c>
@@ -4166,8 +4650,11 @@
       <c r="C207" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" ht="21">
+      <c r="D207" s="7">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="21">
       <c r="A208" s="5" t="s">
         <v>171</v>
       </c>
@@ -4177,8 +4664,11 @@
       <c r="C208" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" ht="21">
+      <c r="D208" s="7">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="21">
       <c r="A209" s="5" t="s">
         <v>171</v>
       </c>
@@ -4188,8 +4678,11 @@
       <c r="C209" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" ht="21">
+      <c r="D209" s="7">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="21">
       <c r="A210" s="5" t="s">
         <v>171</v>
       </c>
@@ -4199,8 +4692,11 @@
       <c r="C210" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" ht="21">
+      <c r="D210" s="7">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="21">
       <c r="A211" s="5" t="s">
         <v>171</v>
       </c>
@@ -4210,18 +4706,23 @@
       <c r="C211" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" ht="21">
+      <c r="D211" s="7">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="21">
       <c r="A212" s="8"/>
       <c r="B212" s="7"/>
       <c r="C212" s="4"/>
-    </row>
-    <row r="213" spans="1:3" ht="21">
+      <c r="D212" s="7"/>
+    </row>
+    <row r="213" spans="1:4" ht="21">
       <c r="A213" s="8"/>
       <c r="B213" s="7"/>
       <c r="C213" s="4"/>
-    </row>
-    <row r="214" spans="1:3" ht="21">
+      <c r="D213" s="7"/>
+    </row>
+    <row r="214" spans="1:4" ht="21">
       <c r="A214" s="5" t="s">
         <v>207</v>
       </c>
@@ -4231,8 +4732,11 @@
       <c r="C214" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" ht="21">
+      <c r="D214" s="7">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="21">
       <c r="A215" s="5" t="s">
         <v>207</v>
       </c>
@@ -4242,8 +4746,11 @@
       <c r="C215" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" ht="21">
+      <c r="D215" s="7">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="21">
       <c r="A216" s="5" t="s">
         <v>207</v>
       </c>
@@ -4253,8 +4760,11 @@
       <c r="C216" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" ht="21">
+      <c r="D216" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="21">
       <c r="A217" s="5" t="s">
         <v>207</v>
       </c>
@@ -4264,8 +4774,11 @@
       <c r="C217" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" ht="21">
+      <c r="D217" s="7">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="21">
       <c r="A218" s="5" t="s">
         <v>207</v>
       </c>
@@ -4275,8 +4788,11 @@
       <c r="C218" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" ht="21">
+      <c r="D218" s="7">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="21">
       <c r="A219" s="5" t="s">
         <v>207</v>
       </c>
@@ -4286,8 +4802,11 @@
       <c r="C219" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" ht="21">
+      <c r="D219" s="7">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="21">
       <c r="A220" s="5" t="s">
         <v>207</v>
       </c>
@@ -4297,8 +4816,11 @@
       <c r="C220" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" ht="21">
+      <c r="D220" s="7">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="21">
       <c r="A221" s="5" t="s">
         <v>207</v>
       </c>
@@ -4308,8 +4830,11 @@
       <c r="C221" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" ht="21">
+      <c r="D221" s="7">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="21">
       <c r="A222" s="5" t="s">
         <v>207</v>
       </c>
@@ -4319,8 +4844,11 @@
       <c r="C222" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" ht="21">
+      <c r="D222" s="7">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="21">
       <c r="A223" s="5" t="s">
         <v>207</v>
       </c>
@@ -4330,8 +4858,11 @@
       <c r="C223" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" ht="21">
+      <c r="D223" s="7">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="21">
       <c r="A224" s="5" t="s">
         <v>207</v>
       </c>
@@ -4341,8 +4872,11 @@
       <c r="C224" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" ht="21">
+      <c r="D224" s="7">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="21">
       <c r="A225" s="5" t="s">
         <v>207</v>
       </c>
@@ -4352,8 +4886,11 @@
       <c r="C225" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" ht="21">
+      <c r="D225" s="7">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="21">
       <c r="A226" s="5" t="s">
         <v>207</v>
       </c>
@@ -4363,8 +4900,11 @@
       <c r="C226" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" ht="21">
+      <c r="D226" s="7">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="21">
       <c r="A227" s="5" t="s">
         <v>207</v>
       </c>
@@ -4374,8 +4914,11 @@
       <c r="C227" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" ht="21">
+      <c r="D227" s="7">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="21">
       <c r="A228" s="5" t="s">
         <v>207</v>
       </c>
@@ -4385,8 +4928,11 @@
       <c r="C228" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" ht="21">
+      <c r="D228" s="7">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="21">
       <c r="A229" s="5" t="s">
         <v>207</v>
       </c>
@@ -4396,8 +4942,11 @@
       <c r="C229" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" ht="21">
+      <c r="D229" s="7">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="21">
       <c r="A230" s="5" t="s">
         <v>207</v>
       </c>
@@ -4407,8 +4956,11 @@
       <c r="C230" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" ht="21">
+      <c r="D230" s="7">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="21">
       <c r="A231" s="5" t="s">
         <v>207</v>
       </c>
@@ -4418,8 +4970,11 @@
       <c r="C231" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" ht="21">
+      <c r="D231" s="7">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="21">
       <c r="A232" s="5" t="s">
         <v>207</v>
       </c>
@@ -4429,8 +4984,11 @@
       <c r="C232" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" ht="21">
+      <c r="D232" s="7">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="21">
       <c r="A233" s="5" t="s">
         <v>207</v>
       </c>
@@ -4440,8 +4998,11 @@
       <c r="C233" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" ht="21">
+      <c r="D233" s="7">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="21">
       <c r="A234" s="5" t="s">
         <v>207</v>
       </c>
@@ -4451,8 +5012,11 @@
       <c r="C234" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" ht="21">
+      <c r="D234" s="7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="21">
       <c r="A235" s="5" t="s">
         <v>207</v>
       </c>
@@ -4462,16 +5026,19 @@
       <c r="C235" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" ht="21">
+      <c r="D235" s="7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="21">
       <c r="B236" s="7"/>
       <c r="C236" s="4"/>
     </row>
-    <row r="237" spans="1:3" ht="21">
+    <row r="237" spans="1:4" ht="21">
       <c r="B237" s="7"/>
       <c r="C237" s="4"/>
     </row>
-    <row r="238" spans="1:3" ht="21">
+    <row r="238" spans="1:4" ht="21">
       <c r="A238" s="5" t="s">
         <v>230</v>
       </c>
@@ -4481,8 +5048,11 @@
       <c r="C238" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" ht="21">
+      <c r="D238" s="7">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="21">
       <c r="A239" s="5" t="s">
         <v>230</v>
       </c>
@@ -4492,8 +5062,11 @@
       <c r="C239" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" ht="21">
+      <c r="D239" s="7">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="21">
       <c r="A240" s="5" t="s">
         <v>230</v>
       </c>
@@ -4503,8 +5076,11 @@
       <c r="C240" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" ht="21">
+      <c r="D240" s="7">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="21">
       <c r="A241" s="5" t="s">
         <v>230</v>
       </c>
@@ -4514,8 +5090,11 @@
       <c r="C241" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" ht="21">
+      <c r="D241" s="7">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="21">
       <c r="A242" s="5" t="s">
         <v>230</v>
       </c>
@@ -4525,8 +5104,11 @@
       <c r="C242" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" ht="21">
+      <c r="D242" s="7">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="21">
       <c r="A243" s="5" t="s">
         <v>230</v>
       </c>
@@ -4536,8 +5118,11 @@
       <c r="C243" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" ht="21">
+      <c r="D243" s="7">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="21">
       <c r="A244" s="5" t="s">
         <v>230</v>
       </c>
@@ -4547,8 +5132,11 @@
       <c r="C244" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" ht="21">
+      <c r="D244" s="7">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="21">
       <c r="A245" s="5" t="s">
         <v>230</v>
       </c>
@@ -4558,8 +5146,11 @@
       <c r="C245" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" ht="21">
+      <c r="D245" s="7">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="21">
       <c r="A246" s="5" t="s">
         <v>230</v>
       </c>
@@ -4569,8 +5160,11 @@
       <c r="C246" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" ht="21">
+      <c r="D246" s="7">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="21">
       <c r="A247" s="5" t="s">
         <v>230</v>
       </c>
@@ -4580,8 +5174,11 @@
       <c r="C247" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" ht="21">
+      <c r="D247" s="7">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="21">
       <c r="A248" s="5" t="s">
         <v>230</v>
       </c>
@@ -4591,8 +5188,11 @@
       <c r="C248" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" ht="21">
+      <c r="D248" s="7">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="21">
       <c r="A249" s="5" t="s">
         <v>230</v>
       </c>
@@ -4602,8 +5202,11 @@
       <c r="C249" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" ht="21">
+      <c r="D249" s="7">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="21">
       <c r="A250" s="5" t="s">
         <v>230</v>
       </c>
@@ -4613,8 +5216,11 @@
       <c r="C250" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" ht="21">
+      <c r="D250" s="7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="21">
       <c r="A251" s="5" t="s">
         <v>230</v>
       </c>
@@ -4624,8 +5230,11 @@
       <c r="C251" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" ht="21">
+      <c r="D251" s="7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="21">
       <c r="A252" s="5" t="s">
         <v>230</v>
       </c>
@@ -4635,8 +5244,11 @@
       <c r="C252" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" ht="21">
+      <c r="D252" s="7">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="21">
       <c r="A253" s="5" t="s">
         <v>230</v>
       </c>
@@ -4646,8 +5258,11 @@
       <c r="C253" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" ht="21">
+      <c r="D253" s="7">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="21">
       <c r="A254" s="5" t="s">
         <v>230</v>
       </c>
@@ -4657,8 +5272,11 @@
       <c r="C254" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" ht="21">
+      <c r="D254" s="7">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="21">
       <c r="A255" s="5" t="s">
         <v>230</v>
       </c>
@@ -4668,8 +5286,11 @@
       <c r="C255" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" ht="21">
+      <c r="D255" s="7">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="21">
       <c r="A256" s="5" t="s">
         <v>230</v>
       </c>
@@ -4679,8 +5300,11 @@
       <c r="C256" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" ht="21">
+      <c r="D256" s="7">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="21">
       <c r="A257" s="5" t="s">
         <v>230</v>
       </c>
@@ -4690,8 +5314,11 @@
       <c r="C257" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" ht="21">
+      <c r="D257" s="7">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="21">
       <c r="A258" s="5" t="s">
         <v>230</v>
       </c>
@@ -4701,8 +5328,11 @@
       <c r="C258" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" ht="21">
+      <c r="D258" s="7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="21">
       <c r="A259" s="5" t="s">
         <v>230</v>
       </c>
@@ -4712,8 +5342,11 @@
       <c r="C259" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" ht="21">
+      <c r="D259" s="7">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="21">
       <c r="A260" s="5" t="s">
         <v>230</v>
       </c>
@@ -4723,8 +5356,11 @@
       <c r="C260" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" ht="21">
+      <c r="D260" s="7">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="21">
       <c r="A261" s="5" t="s">
         <v>230</v>
       </c>
@@ -4734,8 +5370,11 @@
       <c r="C261" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" ht="21">
+      <c r="D261" s="7">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="21">
       <c r="A262" s="5" t="s">
         <v>230</v>
       </c>
@@ -4745,8 +5384,11 @@
       <c r="C262" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" ht="21">
+      <c r="D262" s="7">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="21">
       <c r="A263" s="5" t="s">
         <v>230</v>
       </c>
@@ -4756,8 +5398,11 @@
       <c r="C263" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" ht="21">
+      <c r="D263" s="7">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="21">
       <c r="A264" s="5" t="s">
         <v>230</v>
       </c>
@@ -4767,8 +5412,11 @@
       <c r="C264" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" ht="21">
+      <c r="D264" s="7">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="21">
       <c r="A265" s="5" t="s">
         <v>230</v>
       </c>
@@ -4778,8 +5426,11 @@
       <c r="C265" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" ht="21">
+      <c r="D265" s="7">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="21">
       <c r="A266" s="5" t="s">
         <v>230</v>
       </c>
@@ -4789,8 +5440,11 @@
       <c r="C266" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" ht="21">
+      <c r="D266" s="7">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="21">
       <c r="A267" s="5" t="s">
         <v>230</v>
       </c>
@@ -4800,8 +5454,11 @@
       <c r="C267" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" ht="21">
+      <c r="D267" s="7">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="21">
       <c r="A268" s="5" t="s">
         <v>230</v>
       </c>
@@ -4811,8 +5468,11 @@
       <c r="C268" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" ht="21">
+      <c r="D268" s="7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="21">
       <c r="A269" s="5" t="s">
         <v>230</v>
       </c>
@@ -4822,8 +5482,11 @@
       <c r="C269" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" ht="21">
+      <c r="D269" s="7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="21">
       <c r="A270" s="5" t="s">
         <v>230</v>
       </c>
@@ -4833,8 +5496,11 @@
       <c r="C270" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" ht="21">
+      <c r="D270" s="7">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="21">
       <c r="A271" s="5" t="s">
         <v>230</v>
       </c>
@@ -4844,8 +5510,11 @@
       <c r="C271" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" ht="21">
+      <c r="D271" s="7">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="21">
       <c r="A272" s="5" t="s">
         <v>230</v>
       </c>
@@ -4855,16 +5524,21 @@
       <c r="C272" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" ht="21">
+      <c r="D272" s="7">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="21">
       <c r="B273" s="7"/>
       <c r="C273" s="4"/>
-    </row>
-    <row r="274" spans="1:3" ht="21">
+      <c r="D273" s="7"/>
+    </row>
+    <row r="274" spans="1:4" ht="21">
       <c r="B274" s="7"/>
       <c r="C274" s="4"/>
-    </row>
-    <row r="275" spans="1:3" ht="21">
+      <c r="D274" s="7"/>
+    </row>
+    <row r="275" spans="1:4" ht="21">
       <c r="A275" s="5" t="s">
         <v>265</v>
       </c>
@@ -4874,8 +5548,11 @@
       <c r="C275" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" ht="21">
+      <c r="D275" s="7">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="21">
       <c r="A276" s="5" t="s">
         <v>265</v>
       </c>
@@ -4885,8 +5562,11 @@
       <c r="C276" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" ht="21">
+      <c r="D276" s="7">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="21">
       <c r="A277" s="5" t="s">
         <v>265</v>
       </c>
@@ -4896,8 +5576,11 @@
       <c r="C277" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" ht="21">
+      <c r="D277" s="7">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="21">
       <c r="A278" s="5" t="s">
         <v>265</v>
       </c>
@@ -4907,8 +5590,11 @@
       <c r="C278" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" ht="21">
+      <c r="D278" s="7">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="21">
       <c r="A279" s="5" t="s">
         <v>265</v>
       </c>
@@ -4918,8 +5604,11 @@
       <c r="C279" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" ht="21">
+      <c r="D279" s="7">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="21">
       <c r="A280" s="5" t="s">
         <v>265</v>
       </c>
@@ -4929,8 +5618,11 @@
       <c r="C280" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" ht="21">
+      <c r="D280" s="7">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="21">
       <c r="A281" s="5" t="s">
         <v>265</v>
       </c>
@@ -4940,8 +5632,11 @@
       <c r="C281" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" ht="21">
+      <c r="D281" s="7">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="21">
       <c r="A282" s="5" t="s">
         <v>265</v>
       </c>
@@ -4951,8 +5646,11 @@
       <c r="C282" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" ht="21">
+      <c r="D282" s="7">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="21">
       <c r="A283" s="5" t="s">
         <v>265</v>
       </c>
@@ -4962,8 +5660,11 @@
       <c r="C283" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" ht="21">
+      <c r="D283" s="7">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="21">
       <c r="A284" s="5" t="s">
         <v>265</v>
       </c>
@@ -4973,8 +5674,11 @@
       <c r="C284" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" ht="21">
+      <c r="D284" s="7">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="21">
       <c r="A285" s="5" t="s">
         <v>265</v>
       </c>
@@ -4984,8 +5688,11 @@
       <c r="C285" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" ht="21">
+      <c r="D285" s="7">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="21">
       <c r="A286" s="5" t="s">
         <v>265</v>
       </c>
@@ -4995,8 +5702,11 @@
       <c r="C286" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" ht="21">
+      <c r="D286" s="7">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="21">
       <c r="A287" s="5" t="s">
         <v>265</v>
       </c>
@@ -5006,8 +5716,11 @@
       <c r="C287" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" ht="21">
+      <c r="D287" s="7">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="21">
       <c r="A288" s="5" t="s">
         <v>265</v>
       </c>
@@ -5017,8 +5730,11 @@
       <c r="C288" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" ht="21">
+      <c r="D288" s="7">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="21">
       <c r="A289" s="5" t="s">
         <v>265</v>
       </c>
@@ -5028,8 +5744,11 @@
       <c r="C289" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" ht="21">
+      <c r="D289" s="7">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="21">
       <c r="A290" s="5" t="s">
         <v>265</v>
       </c>
@@ -5039,8 +5758,11 @@
       <c r="C290" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" ht="21">
+      <c r="D290" s="7">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="21">
       <c r="A291" s="5" t="s">
         <v>265</v>
       </c>
@@ -5050,8 +5772,11 @@
       <c r="C291" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" ht="21">
+      <c r="D291" s="7">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="21">
       <c r="A292" s="5" t="s">
         <v>265</v>
       </c>
@@ -5061,8 +5786,11 @@
       <c r="C292" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" ht="21">
+      <c r="D292" s="7">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="21">
       <c r="A293" s="5" t="s">
         <v>265</v>
       </c>
@@ -5072,16 +5800,19 @@
       <c r="C293" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" ht="21">
+      <c r="D293" s="7">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="21">
       <c r="B294" s="7"/>
       <c r="C294" s="4"/>
     </row>
-    <row r="295" spans="1:3" ht="21">
+    <row r="295" spans="1:4" ht="21">
       <c r="B295" s="7"/>
       <c r="C295" s="4"/>
     </row>
-    <row r="296" spans="1:3" ht="21">
+    <row r="296" spans="1:4" ht="21">
       <c r="A296" s="5" t="s">
         <v>285</v>
       </c>
@@ -5091,8 +5822,11 @@
       <c r="C296" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" ht="21">
+      <c r="D296" s="7">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="21">
       <c r="A297" s="5" t="s">
         <v>285</v>
       </c>
@@ -5102,8 +5836,11 @@
       <c r="C297" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" ht="21">
+      <c r="D297" s="7">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" ht="21">
       <c r="A298" s="5" t="s">
         <v>285</v>
       </c>
@@ -5113,8 +5850,11 @@
       <c r="C298" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" ht="21">
+      <c r="D298" s="7">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="21">
       <c r="A299" s="5" t="s">
         <v>285</v>
       </c>
@@ -5124,8 +5864,11 @@
       <c r="C299" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" ht="21">
+      <c r="D299" s="7">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="21">
       <c r="A300" s="5" t="s">
         <v>285</v>
       </c>
@@ -5135,8 +5878,11 @@
       <c r="C300" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" ht="21">
+      <c r="D300" s="7">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="21">
       <c r="A301" s="5" t="s">
         <v>285</v>
       </c>
@@ -5146,8 +5892,11 @@
       <c r="C301" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" ht="21">
+      <c r="D301" s="7">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="21">
       <c r="A302" s="5" t="s">
         <v>285</v>
       </c>
@@ -5157,8 +5906,11 @@
       <c r="C302" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" ht="21">
+      <c r="D302" s="7">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="21">
       <c r="A303" s="5" t="s">
         <v>285</v>
       </c>
@@ -5168,8 +5920,11 @@
       <c r="C303" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" ht="21">
+      <c r="D303" s="7">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="21">
       <c r="A304" s="5" t="s">
         <v>285</v>
       </c>
@@ -5179,8 +5934,11 @@
       <c r="C304" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" ht="21">
+      <c r="D304" s="7">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="21">
       <c r="A305" s="5" t="s">
         <v>285</v>
       </c>
@@ -5190,8 +5948,11 @@
       <c r="C305" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" ht="21">
+      <c r="D305" s="7">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="21">
       <c r="A306" s="5" t="s">
         <v>285</v>
       </c>
@@ -5201,8 +5962,11 @@
       <c r="C306" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" ht="21">
+      <c r="D306" s="7">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="21">
       <c r="A307" s="5" t="s">
         <v>285</v>
       </c>
@@ -5212,8 +5976,11 @@
       <c r="C307" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" ht="21">
+      <c r="D307" s="7">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="21">
       <c r="A308" s="5" t="s">
         <v>285</v>
       </c>
@@ -5223,8 +5990,11 @@
       <c r="C308" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" ht="21">
+      <c r="D308" s="7">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="21">
       <c r="A309" s="5" t="s">
         <v>285</v>
       </c>
@@ -5234,8 +6004,11 @@
       <c r="C309" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" ht="21">
+      <c r="D309" s="7">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="21">
       <c r="A310" s="5" t="s">
         <v>285</v>
       </c>
@@ -5245,8 +6018,11 @@
       <c r="C310" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" ht="21">
+      <c r="D310" s="7">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" ht="21">
       <c r="A311" s="5" t="s">
         <v>285</v>
       </c>
@@ -5256,8 +6032,11 @@
       <c r="C311" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" ht="21">
+      <c r="D311" s="7">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="21">
       <c r="A312" s="5" t="s">
         <v>285</v>
       </c>
@@ -5267,8 +6046,11 @@
       <c r="C312" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" ht="21">
+      <c r="D312" s="7">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" ht="21">
       <c r="A313" s="5" t="s">
         <v>285</v>
       </c>
@@ -5278,8 +6060,11 @@
       <c r="C313" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" ht="21">
+      <c r="D313" s="7">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="21">
       <c r="A314" s="5" t="s">
         <v>285</v>
       </c>
@@ -5289,8 +6074,11 @@
       <c r="C314" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" ht="21">
+      <c r="D314" s="7">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="21">
       <c r="A315" s="5" t="s">
         <v>285</v>
       </c>
@@ -5300,8 +6088,11 @@
       <c r="C315" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" ht="21">
+      <c r="D315" s="7">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="21">
       <c r="A316" s="5" t="s">
         <v>285</v>
       </c>
@@ -5311,8 +6102,11 @@
       <c r="C316" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" ht="21">
+      <c r="D316" s="7">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="21">
       <c r="A317" s="5" t="s">
         <v>285</v>
       </c>
@@ -5322,8 +6116,11 @@
       <c r="C317" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" ht="21">
+      <c r="D317" s="7">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="21">
       <c r="A318" s="5" t="s">
         <v>285</v>
       </c>
@@ -5333,8 +6130,11 @@
       <c r="C318" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" ht="21">
+      <c r="D318" s="7">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="21">
       <c r="A319" s="5" t="s">
         <v>285</v>
       </c>
@@ -5344,8 +6144,11 @@
       <c r="C319" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" ht="21">
+      <c r="D319" s="7">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="21">
       <c r="A320" s="5" t="s">
         <v>285</v>
       </c>
@@ -5355,8 +6158,11 @@
       <c r="C320" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" ht="21">
+      <c r="D320" s="7">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" ht="21">
       <c r="A321" s="5" t="s">
         <v>285</v>
       </c>
@@ -5366,8 +6172,11 @@
       <c r="C321" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" ht="21">
+      <c r="D321" s="7">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" ht="21">
       <c r="A322" s="5" t="s">
         <v>285</v>
       </c>
@@ -5377,8 +6186,11 @@
       <c r="C322" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" ht="21">
+      <c r="D322" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" ht="21">
       <c r="A323" s="5" t="s">
         <v>285</v>
       </c>
@@ -5388,8 +6200,11 @@
       <c r="C323" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" ht="21">
+      <c r="D323" s="7">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" ht="21">
       <c r="A324" s="5" t="s">
         <v>285</v>
       </c>
@@ -5399,8 +6214,11 @@
       <c r="C324" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" ht="21">
+      <c r="D324" s="7">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" ht="21">
       <c r="A325" s="5" t="s">
         <v>285</v>
       </c>
@@ -5410,8 +6228,11 @@
       <c r="C325" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" ht="21">
+      <c r="D325" s="7">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" ht="21">
       <c r="A326" s="5" t="s">
         <v>285</v>
       </c>
@@ -5421,8 +6242,11 @@
       <c r="C326" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" ht="21">
+      <c r="D326" s="7">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" ht="21">
       <c r="A327" s="5" t="s">
         <v>285</v>
       </c>
@@ -5432,8 +6256,11 @@
       <c r="C327" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" ht="21">
+      <c r="D327" s="7">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" ht="21">
       <c r="A328" s="5" t="s">
         <v>285</v>
       </c>
@@ -5443,8 +6270,11 @@
       <c r="C328" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" ht="21">
+      <c r="D328" s="7">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" ht="21">
       <c r="A329" s="5" t="s">
         <v>285</v>
       </c>
@@ -5454,8 +6284,11 @@
       <c r="C329" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" ht="21">
+      <c r="D329" s="7">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" ht="21">
       <c r="A330" s="5" t="s">
         <v>285</v>
       </c>
@@ -5465,8 +6298,11 @@
       <c r="C330" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" ht="21">
+      <c r="D330" s="7">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" ht="21">
       <c r="A331" s="5" t="s">
         <v>285</v>
       </c>
@@ -5476,8 +6312,11 @@
       <c r="C331" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" ht="21">
+      <c r="D331" s="7">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" ht="21">
       <c r="A332" s="5" t="s">
         <v>285</v>
       </c>
@@ -5487,8 +6326,11 @@
       <c r="C332" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" ht="21">
+      <c r="D332" s="7">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" ht="21">
       <c r="A333" s="5" t="s">
         <v>285</v>
       </c>
@@ -5498,16 +6340,19 @@
       <c r="C333" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" ht="21">
+      <c r="D333" s="7">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" ht="21">
       <c r="B334" s="7"/>
       <c r="C334" s="4"/>
     </row>
-    <row r="335" spans="1:3" ht="21">
+    <row r="335" spans="1:4" ht="21">
       <c r="B335" s="7"/>
       <c r="C335" s="4"/>
     </row>
-    <row r="336" spans="1:3" ht="21">
+    <row r="336" spans="1:4" ht="21">
       <c r="A336" s="8" t="s">
         <v>324</v>
       </c>
@@ -5517,8 +6362,11 @@
       <c r="C336" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" ht="21">
+      <c r="D336" s="7">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" ht="21">
       <c r="A337" s="8" t="s">
         <v>324</v>
       </c>
@@ -5528,8 +6376,11 @@
       <c r="C337" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" ht="21">
+      <c r="D337" s="7">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" ht="21">
       <c r="A338" s="8" t="s">
         <v>324</v>
       </c>
@@ -5539,8 +6390,11 @@
       <c r="C338" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" ht="21">
+      <c r="D338" s="7">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" ht="21">
       <c r="A339" s="8" t="s">
         <v>324</v>
       </c>
@@ -5550,8 +6404,11 @@
       <c r="C339" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" ht="21">
+      <c r="D339" s="7">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" ht="21">
       <c r="A340" s="8" t="s">
         <v>324</v>
       </c>
@@ -5561,8 +6418,11 @@
       <c r="C340" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" ht="21">
+      <c r="D340" s="7">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" ht="21">
       <c r="A341" s="8" t="s">
         <v>324</v>
       </c>
@@ -5572,8 +6432,11 @@
       <c r="C341" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" ht="21">
+      <c r="D341" s="7">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" ht="21">
       <c r="A342" s="8" t="s">
         <v>324</v>
       </c>
@@ -5583,8 +6446,11 @@
       <c r="C342" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" ht="21">
+      <c r="D342" s="7">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" ht="21">
       <c r="A343" s="8" t="s">
         <v>324</v>
       </c>
@@ -5594,8 +6460,11 @@
       <c r="C343" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" ht="21">
+      <c r="D343" s="7">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" ht="21">
       <c r="A344" s="8" t="s">
         <v>324</v>
       </c>
@@ -5605,8 +6474,11 @@
       <c r="C344" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" ht="21">
+      <c r="D344" s="7">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" ht="21">
       <c r="A345" s="8" t="s">
         <v>324</v>
       </c>
@@ -5616,8 +6488,11 @@
       <c r="C345" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" ht="21">
+      <c r="D345" s="7">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" ht="21">
       <c r="A346" s="8" t="s">
         <v>324</v>
       </c>
@@ -5627,8 +6502,11 @@
       <c r="C346" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" ht="21">
+      <c r="D346" s="7">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" ht="21">
       <c r="A347" s="8" t="s">
         <v>324</v>
       </c>
@@ -5638,8 +6516,11 @@
       <c r="C347" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" ht="21">
+      <c r="D347" s="7">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" ht="21">
       <c r="A348" s="8" t="s">
         <v>324</v>
       </c>
@@ -5649,8 +6530,11 @@
       <c r="C348" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" ht="21">
+      <c r="D348" s="7">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" ht="21">
       <c r="A349" s="8" t="s">
         <v>324</v>
       </c>
@@ -5660,8 +6544,11 @@
       <c r="C349" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" ht="21">
+      <c r="D349" s="7">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" ht="21">
       <c r="A350" s="8" t="s">
         <v>324</v>
       </c>
@@ -5671,8 +6558,11 @@
       <c r="C350" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" ht="21">
+      <c r="D350" s="7">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" ht="21">
       <c r="A351" s="8" t="s">
         <v>324</v>
       </c>
@@ -5682,8 +6572,11 @@
       <c r="C351" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" ht="21">
+      <c r="D351" s="7">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" ht="21">
       <c r="A352" s="8" t="s">
         <v>324</v>
       </c>
@@ -5693,8 +6586,11 @@
       <c r="C352" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" ht="21">
+      <c r="D352" s="7">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" ht="21">
       <c r="A353" s="8" t="s">
         <v>324</v>
       </c>
@@ -5704,16 +6600,21 @@
       <c r="C353" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" ht="21">
+      <c r="D353" s="7">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" ht="21">
       <c r="B354" s="7"/>
       <c r="C354" s="4"/>
-    </row>
-    <row r="355" spans="1:3" ht="21">
+      <c r="D354" s="7"/>
+    </row>
+    <row r="355" spans="1:4" ht="21">
       <c r="B355" s="7"/>
       <c r="C355" s="4"/>
-    </row>
-    <row r="356" spans="1:3" ht="21">
+      <c r="D355" s="7"/>
+    </row>
+    <row r="356" spans="1:4" ht="21">
       <c r="A356" s="8" t="s">
         <v>343</v>
       </c>
@@ -5723,8 +6624,11 @@
       <c r="C356" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" ht="21">
+      <c r="D356" s="7">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" ht="21">
       <c r="A357" s="8" t="s">
         <v>343</v>
       </c>
@@ -5734,8 +6638,11 @@
       <c r="C357" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" ht="21">
+      <c r="D357" s="7">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" ht="21">
       <c r="A358" s="8" t="s">
         <v>343</v>
       </c>
@@ -5745,8 +6652,11 @@
       <c r="C358" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" ht="21">
+      <c r="D358" s="7">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" ht="21">
       <c r="A359" s="8" t="s">
         <v>343</v>
       </c>
@@ -5756,8 +6666,11 @@
       <c r="C359" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" ht="21">
+      <c r="D359" s="7">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" ht="21">
       <c r="A360" s="8" t="s">
         <v>343</v>
       </c>
@@ -5767,8 +6680,11 @@
       <c r="C360" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" ht="21">
+      <c r="D360" s="7">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" ht="21">
       <c r="A361" s="8" t="s">
         <v>343</v>
       </c>
@@ -5778,8 +6694,11 @@
       <c r="C361" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" ht="21">
+      <c r="D361" s="7">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" ht="21">
       <c r="A362" s="8" t="s">
         <v>343</v>
       </c>
@@ -5789,8 +6708,11 @@
       <c r="C362" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" ht="21">
+      <c r="D362" s="7">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" ht="21">
       <c r="A363" s="8" t="s">
         <v>343</v>
       </c>
@@ -5800,8 +6722,11 @@
       <c r="C363" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" ht="21">
+      <c r="D363" s="7">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" ht="21">
       <c r="A364" s="8" t="s">
         <v>343</v>
       </c>
@@ -5811,8 +6736,11 @@
       <c r="C364" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" ht="21">
+      <c r="D364" s="7">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" ht="21">
       <c r="A365" s="8" t="s">
         <v>343</v>
       </c>
@@ -5822,8 +6750,11 @@
       <c r="C365" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" ht="21">
+      <c r="D365" s="7">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" ht="21">
       <c r="A366" s="8" t="s">
         <v>343</v>
       </c>
@@ -5833,8 +6764,11 @@
       <c r="C366" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" ht="21">
+      <c r="D366" s="7">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" ht="21">
       <c r="A367" s="8" t="s">
         <v>343</v>
       </c>
@@ -5844,8 +6778,11 @@
       <c r="C367" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" ht="21">
+      <c r="D367" s="7">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" ht="21">
       <c r="A368" s="8" t="s">
         <v>343</v>
       </c>
@@ -5855,8 +6792,11 @@
       <c r="C368" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" ht="21">
+      <c r="D368" s="7">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" ht="21">
       <c r="A369" s="8" t="s">
         <v>343</v>
       </c>
@@ -5866,8 +6806,11 @@
       <c r="C369" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" ht="21">
+      <c r="D369" s="7">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" ht="21">
       <c r="A370" s="8" t="s">
         <v>343</v>
       </c>
@@ -5877,8 +6820,11 @@
       <c r="C370" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" ht="21">
+      <c r="D370" s="7">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" ht="21">
       <c r="A371" s="8" t="s">
         <v>343</v>
       </c>
@@ -5888,8 +6834,11 @@
       <c r="C371" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" ht="21">
+      <c r="D371" s="7">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" ht="21">
       <c r="A372" s="8" t="s">
         <v>343</v>
       </c>
@@ -5899,8 +6848,11 @@
       <c r="C372" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" ht="21">
+      <c r="D372" s="7">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" ht="21">
       <c r="A373" s="8" t="s">
         <v>343</v>
       </c>
@@ -5910,8 +6862,11 @@
       <c r="C373" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" ht="21">
+      <c r="D373" s="7">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" ht="21">
       <c r="A374" s="8" t="s">
         <v>343</v>
       </c>
@@ -5921,8 +6876,11 @@
       <c r="C374" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" ht="21">
+      <c r="D374" s="7">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" ht="21">
       <c r="A375" s="8" t="s">
         <v>343</v>
       </c>
@@ -5932,8 +6890,11 @@
       <c r="C375" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" ht="21">
+      <c r="D375" s="7">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" ht="21">
       <c r="A376" s="8" t="s">
         <v>343</v>
       </c>
@@ -5943,8 +6904,11 @@
       <c r="C376" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" ht="21">
+      <c r="D376" s="7">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" ht="21">
       <c r="A377" s="8" t="s">
         <v>343</v>
       </c>
@@ -5954,8 +6918,11 @@
       <c r="C377" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" ht="21">
+      <c r="D377" s="7">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" ht="21">
       <c r="A378" s="8" t="s">
         <v>343</v>
       </c>
@@ -5965,8 +6932,11 @@
       <c r="C378" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" ht="21">
+      <c r="D378" s="7">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" ht="21">
       <c r="A379" s="8" t="s">
         <v>343</v>
       </c>
@@ -5976,8 +6946,11 @@
       <c r="C379" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" ht="21">
+      <c r="D379" s="7">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" ht="21">
       <c r="A380" s="8" t="s">
         <v>343</v>
       </c>
@@ -5987,8 +6960,11 @@
       <c r="C380" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" ht="21">
+      <c r="D380" s="7">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" ht="21">
       <c r="A381" s="8" t="s">
         <v>343</v>
       </c>
@@ -5998,8 +6974,11 @@
       <c r="C381" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" ht="21">
+      <c r="D381" s="7">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" ht="21">
       <c r="A382" s="8" t="s">
         <v>343</v>
       </c>
@@ -6009,8 +6988,11 @@
       <c r="C382" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" ht="21">
+      <c r="D382" s="7">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" ht="21">
       <c r="A383" s="8" t="s">
         <v>343</v>
       </c>
@@ -6020,8 +7002,11 @@
       <c r="C383" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" ht="21">
+      <c r="D383" s="7">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" ht="21">
       <c r="A384" s="8" t="s">
         <v>343</v>
       </c>
@@ -6031,8 +7016,11 @@
       <c r="C384" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" ht="21">
+      <c r="D384" s="7">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" ht="21">
       <c r="A385" s="8" t="s">
         <v>343</v>
       </c>
@@ -6042,8 +7030,11 @@
       <c r="C385" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" ht="21">
+      <c r="D385" s="7">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" ht="21">
       <c r="A386" s="8" t="s">
         <v>343</v>
       </c>
@@ -6053,8 +7044,11 @@
       <c r="C386" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" ht="21">
+      <c r="D386" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" ht="21">
       <c r="A387" s="8" t="s">
         <v>343</v>
       </c>
@@ -6064,8 +7058,11 @@
       <c r="C387" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" ht="21">
+      <c r="D387" s="7">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" ht="21">
       <c r="A388" s="8" t="s">
         <v>343</v>
       </c>
@@ -6075,8 +7072,11 @@
       <c r="C388" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" ht="21">
+      <c r="D388" s="7">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" ht="21">
       <c r="A389" s="8" t="s">
         <v>343</v>
       </c>
@@ -6086,8 +7086,11 @@
       <c r="C389" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" ht="21">
+      <c r="D389" s="7">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" ht="21">
       <c r="A390" s="8" t="s">
         <v>343</v>
       </c>
@@ -6097,8 +7100,11 @@
       <c r="C390" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" ht="21">
+      <c r="D390" s="7">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" ht="21">
       <c r="A391" s="8" t="s">
         <v>343</v>
       </c>
@@ -6108,8 +7114,11 @@
       <c r="C391" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" ht="21">
+      <c r="D391" s="7">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" ht="21">
       <c r="A392" s="8" t="s">
         <v>343</v>
       </c>
@@ -6119,8 +7128,11 @@
       <c r="C392" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" ht="21">
+      <c r="D392" s="7">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" ht="21">
       <c r="A393" s="8" t="s">
         <v>343</v>
       </c>
@@ -6130,8 +7142,11 @@
       <c r="C393" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" ht="21">
+      <c r="D393" s="7">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" ht="21">
       <c r="A394" s="8" t="s">
         <v>343</v>
       </c>
@@ -6141,8 +7156,11 @@
       <c r="C394" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" ht="21">
+      <c r="D394" s="7">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" ht="21">
       <c r="A395" s="8" t="s">
         <v>343</v>
       </c>
@@ -6152,8 +7170,11 @@
       <c r="C395" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" ht="21">
+      <c r="D395" s="7">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" ht="21">
       <c r="A396" s="8" t="s">
         <v>343</v>
       </c>
@@ -6163,8 +7184,11 @@
       <c r="C396" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" ht="21">
+      <c r="D396" s="7">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" ht="21">
       <c r="A397" s="8" t="s">
         <v>343</v>
       </c>
@@ -6174,8 +7198,11 @@
       <c r="C397" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" ht="21">
+      <c r="D397" s="7">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" ht="21">
       <c r="A398" s="8" t="s">
         <v>343</v>
       </c>
@@ -6185,8 +7212,11 @@
       <c r="C398" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" ht="21">
+      <c r="D398" s="7">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" ht="21">
       <c r="A399" s="8" t="s">
         <v>343</v>
       </c>
@@ -6196,16 +7226,19 @@
       <c r="C399" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" ht="21">
+      <c r="D399" s="7">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" ht="21">
       <c r="B400" s="7"/>
       <c r="C400" s="4"/>
     </row>
-    <row r="401" spans="1:3" ht="21">
+    <row r="401" spans="1:4" ht="21">
       <c r="B401" s="7"/>
       <c r="C401" s="4"/>
     </row>
-    <row r="402" spans="1:3" ht="21">
+    <row r="402" spans="1:4" ht="21">
       <c r="A402" s="8" t="s">
         <v>387</v>
       </c>
@@ -6215,8 +7248,11 @@
       <c r="C402" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" ht="21">
+      <c r="D402" s="7">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" ht="21">
       <c r="A403" s="8" t="s">
         <v>387</v>
       </c>
@@ -6226,8 +7262,11 @@
       <c r="C403" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" ht="21">
+      <c r="D403" s="7">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" ht="21">
       <c r="A404" s="8" t="s">
         <v>387</v>
       </c>
@@ -6237,8 +7276,11 @@
       <c r="C404" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" ht="21">
+      <c r="D404" s="7">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" ht="21">
       <c r="A405" s="8" t="s">
         <v>387</v>
       </c>
@@ -6248,8 +7290,11 @@
       <c r="C405" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" ht="21">
+      <c r="D405" s="7">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" ht="21">
       <c r="A406" s="8" t="s">
         <v>387</v>
       </c>
@@ -6259,8 +7304,11 @@
       <c r="C406" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="407" spans="1:3" ht="21">
+      <c r="D406" s="7">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" ht="21">
       <c r="A407" s="8" t="s">
         <v>387</v>
       </c>
@@ -6270,16 +7318,19 @@
       <c r="C407" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="408" spans="1:3" ht="21">
+      <c r="D407" s="7">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" ht="21">
       <c r="B408" s="7"/>
       <c r="C408" s="4"/>
     </row>
-    <row r="409" spans="1:3" ht="21">
+    <row r="409" spans="1:4" ht="21">
       <c r="B409" s="7"/>
       <c r="C409" s="4"/>
     </row>
-    <row r="410" spans="1:3" ht="21">
+    <row r="410" spans="1:4" ht="21">
       <c r="A410" s="5" t="s">
         <v>393</v>
       </c>
@@ -6289,8 +7340,11 @@
       <c r="C410" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="411" spans="1:3" ht="21">
+      <c r="D410" s="7">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" ht="21">
       <c r="A411" s="5" t="s">
         <v>393</v>
       </c>
@@ -6300,8 +7354,11 @@
       <c r="C411" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" ht="21">
+      <c r="D411" s="7">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" ht="21">
       <c r="A412" s="5" t="s">
         <v>393</v>
       </c>
@@ -6311,8 +7368,11 @@
       <c r="C412" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" ht="21">
+      <c r="D412" s="7">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" ht="21">
       <c r="A413" s="5" t="s">
         <v>393</v>
       </c>
@@ -6322,8 +7382,11 @@
       <c r="C413" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="414" spans="1:3" ht="21">
+      <c r="D413" s="7">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" ht="21">
       <c r="A414" s="5" t="s">
         <v>393</v>
       </c>
@@ -6333,8 +7396,11 @@
       <c r="C414" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" ht="21">
+      <c r="D414" s="7">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" ht="21">
       <c r="A415" s="5" t="s">
         <v>393</v>
       </c>
@@ -6344,8 +7410,11 @@
       <c r="C415" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="416" spans="1:3" ht="21">
+      <c r="D415" s="7">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" ht="21">
       <c r="A416" s="5" t="s">
         <v>393</v>
       </c>
@@ -6355,8 +7424,11 @@
       <c r="C416" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="417" spans="1:3" ht="21">
+      <c r="D416" s="7">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" ht="21">
       <c r="A417" s="5" t="s">
         <v>393</v>
       </c>
@@ -6366,8 +7438,11 @@
       <c r="C417" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="418" spans="1:3" ht="21">
+      <c r="D417" s="7">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" ht="21">
       <c r="A418" s="5" t="s">
         <v>393</v>
       </c>
@@ -6377,8 +7452,11 @@
       <c r="C418" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="419" spans="1:3" ht="21">
+      <c r="D418" s="7">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" ht="21">
       <c r="A419" s="5" t="s">
         <v>393</v>
       </c>
@@ -6388,8 +7466,11 @@
       <c r="C419" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="420" spans="1:3" ht="21">
+      <c r="D419" s="7">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" ht="21">
       <c r="A420" s="5" t="s">
         <v>393</v>
       </c>
@@ -6399,8 +7480,11 @@
       <c r="C420" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="421" spans="1:3" ht="21">
+      <c r="D420" s="7">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" ht="21">
       <c r="A421" s="5" t="s">
         <v>393</v>
       </c>
@@ -6410,8 +7494,11 @@
       <c r="C421" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="422" spans="1:3" ht="21">
+      <c r="D421" s="7">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" ht="21">
       <c r="A422" s="5" t="s">
         <v>393</v>
       </c>
@@ -6421,8 +7508,11 @@
       <c r="C422" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="423" spans="1:3" ht="21">
+      <c r="D422" s="7">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" ht="21">
       <c r="A423" s="5" t="s">
         <v>393</v>
       </c>
@@ -6432,8 +7522,11 @@
       <c r="C423" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="424" spans="1:3" ht="21">
+      <c r="D423" s="7">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" ht="21">
       <c r="A424" s="5" t="s">
         <v>393</v>
       </c>
@@ -6443,8 +7536,11 @@
       <c r="C424" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="425" spans="1:3" ht="21">
+      <c r="D424" s="7">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" ht="21">
       <c r="A425" s="5" t="s">
         <v>393</v>
       </c>
@@ -6454,8 +7550,11 @@
       <c r="C425" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="426" spans="1:3" ht="21">
+      <c r="D425" s="7">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" ht="21">
       <c r="A426" s="5" t="s">
         <v>393</v>
       </c>
@@ -6465,8 +7564,11 @@
       <c r="C426" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="427" spans="1:3" ht="21">
+      <c r="D426" s="7">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" ht="21">
       <c r="A427" s="5" t="s">
         <v>393</v>
       </c>
@@ -6476,8 +7578,11 @@
       <c r="C427" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="428" spans="1:3" ht="21">
+      <c r="D427" s="7">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" ht="21">
       <c r="A428" s="5" t="s">
         <v>393</v>
       </c>
@@ -6487,8 +7592,11 @@
       <c r="C428" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="429" spans="1:3" ht="21">
+      <c r="D428" s="7">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" ht="21">
       <c r="A429" s="5" t="s">
         <v>393</v>
       </c>
@@ -6498,8 +7606,11 @@
       <c r="C429" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="430" spans="1:3" ht="21">
+      <c r="D429" s="7">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" ht="21">
       <c r="A430" s="5" t="s">
         <v>393</v>
       </c>
@@ -6509,8 +7620,11 @@
       <c r="C430" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="431" spans="1:3" ht="21">
+      <c r="D430" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" ht="21">
       <c r="A431" s="5" t="s">
         <v>393</v>
       </c>
@@ -6520,8 +7634,11 @@
       <c r="C431" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="432" spans="1:3" ht="21">
+      <c r="D431" s="7">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" ht="21">
       <c r="A432" s="5" t="s">
         <v>393</v>
       </c>
@@ -6531,8 +7648,11 @@
       <c r="C432" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="433" spans="1:3" ht="21">
+      <c r="D432" s="7">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" ht="21">
       <c r="A433" s="5" t="s">
         <v>393</v>
       </c>
@@ -6542,8 +7662,11 @@
       <c r="C433" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="434" spans="1:3" ht="21">
+      <c r="D433" s="7">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" ht="21">
       <c r="A434" s="5" t="s">
         <v>393</v>
       </c>
@@ -6553,8 +7676,11 @@
       <c r="C434" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="435" spans="1:3" ht="21">
+      <c r="D434" s="7">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" ht="21">
       <c r="A435" s="5" t="s">
         <v>393</v>
       </c>
@@ -6564,8 +7690,11 @@
       <c r="C435" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="436" spans="1:3" ht="21">
+      <c r="D435" s="7">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" ht="21">
       <c r="A436" s="5" t="s">
         <v>393</v>
       </c>
@@ -6575,8 +7704,11 @@
       <c r="C436" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="437" spans="1:3" ht="21">
+      <c r="D436" s="7">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" ht="21">
       <c r="A437" s="5" t="s">
         <v>393</v>
       </c>
@@ -6586,8 +7718,11 @@
       <c r="C437" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="438" spans="1:3" ht="21">
+      <c r="D437" s="7">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" ht="21">
       <c r="A438" s="5" t="s">
         <v>393</v>
       </c>
@@ -6597,8 +7732,11 @@
       <c r="C438" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="439" spans="1:3" ht="21">
+      <c r="D438" s="7">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" ht="21">
       <c r="A439" s="5" t="s">
         <v>393</v>
       </c>
@@ -6608,8 +7746,11 @@
       <c r="C439" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="440" spans="1:3" ht="21">
+      <c r="D439" s="7">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" ht="21">
       <c r="A440" s="5" t="s">
         <v>393</v>
       </c>
@@ -6619,8 +7760,11 @@
       <c r="C440" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="441" spans="1:3" ht="21">
+      <c r="D440" s="7">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" ht="21">
       <c r="A441" s="5" t="s">
         <v>393</v>
       </c>
@@ -6630,8 +7774,11 @@
       <c r="C441" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="442" spans="1:3" ht="21">
+      <c r="D441" s="7">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" ht="21">
       <c r="A442" s="5" t="s">
         <v>393</v>
       </c>
@@ -6641,8 +7788,11 @@
       <c r="C442" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="443" spans="1:3" ht="21">
+      <c r="D442" s="7">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" ht="21">
       <c r="A443" s="5" t="s">
         <v>393</v>
       </c>
@@ -6652,8 +7802,11 @@
       <c r="C443" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="444" spans="1:3" ht="21">
+      <c r="D443" s="7">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" ht="21">
       <c r="A444" s="5" t="s">
         <v>393</v>
       </c>
@@ -6663,8 +7816,11 @@
       <c r="C444" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="445" spans="1:3" ht="21">
+      <c r="D444" s="7">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" ht="21">
       <c r="A445" s="5" t="s">
         <v>393</v>
       </c>
@@ -6674,8 +7830,11 @@
       <c r="C445" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="446" spans="1:3" ht="21">
+      <c r="D445" s="7">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" ht="21">
       <c r="A446" s="5" t="s">
         <v>393</v>
       </c>
@@ -6685,8 +7844,11 @@
       <c r="C446" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="447" spans="1:3" ht="21">
+      <c r="D446" s="7">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" ht="21">
       <c r="A447" s="5" t="s">
         <v>393</v>
       </c>
@@ -6696,8 +7858,11 @@
       <c r="C447" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="448" spans="1:3" ht="21">
+      <c r="D447" s="7">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" ht="21">
       <c r="A448" s="5" t="s">
         <v>393</v>
       </c>
@@ -6707,8 +7872,11 @@
       <c r="C448" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="449" spans="1:3" ht="21">
+      <c r="D448" s="7">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" ht="21">
       <c r="A449" s="5" t="s">
         <v>393</v>
       </c>
@@ -6718,8 +7886,11 @@
       <c r="C449" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="450" spans="1:3" ht="21">
+      <c r="D449" s="7">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" ht="21">
       <c r="A450" s="5" t="s">
         <v>393</v>
       </c>
@@ -6729,8 +7900,11 @@
       <c r="C450" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="451" spans="1:3" ht="21">
+      <c r="D450" s="7">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" ht="21">
       <c r="A451" s="5" t="s">
         <v>393</v>
       </c>
@@ -6740,8 +7914,11 @@
       <c r="C451" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="452" spans="1:3" ht="21">
+      <c r="D451" s="7">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" ht="21">
       <c r="A452" s="5" t="s">
         <v>393</v>
       </c>
@@ -6751,8 +7928,11 @@
       <c r="C452" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="453" spans="1:3" ht="21">
+      <c r="D452" s="7">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" ht="21">
       <c r="A453" s="5" t="s">
         <v>393</v>
       </c>
@@ -6762,8 +7942,11 @@
       <c r="C453" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="454" spans="1:3" ht="21">
+      <c r="D453" s="7">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" ht="21">
       <c r="A454" s="5" t="s">
         <v>393</v>
       </c>
@@ -6773,8 +7956,11 @@
       <c r="C454" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="455" spans="1:3" ht="21">
+      <c r="D454" s="7">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" ht="21">
       <c r="A455" s="5" t="s">
         <v>393</v>
       </c>
@@ -6784,8 +7970,11 @@
       <c r="C455" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="456" spans="1:3" ht="21">
+      <c r="D455" s="7">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" ht="21">
       <c r="A456" s="5" t="s">
         <v>393</v>
       </c>
@@ -6795,8 +7984,11 @@
       <c r="C456" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="457" spans="1:3" ht="21">
+      <c r="D456" s="7">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" ht="21">
       <c r="A457" s="5" t="s">
         <v>393</v>
       </c>
@@ -6806,8 +7998,11 @@
       <c r="C457" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="458" spans="1:3" ht="21">
+      <c r="D457" s="7">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" ht="21">
       <c r="A458" s="5" t="s">
         <v>393</v>
       </c>
@@ -6817,8 +8012,11 @@
       <c r="C458" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="459" spans="1:3" ht="21">
+      <c r="D458" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" ht="21">
       <c r="A459" s="5" t="s">
         <v>393</v>
       </c>
@@ -6828,8 +8026,11 @@
       <c r="C459" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="460" spans="1:3" ht="21">
+      <c r="D459" s="7">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" ht="21">
       <c r="A460" s="5" t="s">
         <v>393</v>
       </c>
@@ -6839,8 +8040,11 @@
       <c r="C460" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="461" spans="1:3" ht="21">
+      <c r="D460" s="7">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" ht="21">
       <c r="A461" s="5" t="s">
         <v>393</v>
       </c>
@@ -6850,8 +8054,11 @@
       <c r="C461" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="462" spans="1:3" ht="21">
+      <c r="D461" s="7">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" ht="21">
       <c r="A462" s="5" t="s">
         <v>393</v>
       </c>
@@ -6861,8 +8068,11 @@
       <c r="C462" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="463" spans="1:3" ht="21">
+      <c r="D462" s="7">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" ht="21">
       <c r="A463" s="5" t="s">
         <v>393</v>
       </c>
@@ -6872,8 +8082,11 @@
       <c r="C463" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="464" spans="1:3" ht="21">
+      <c r="D463" s="7">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" ht="21">
       <c r="A464" s="5" t="s">
         <v>393</v>
       </c>
@@ -6883,8 +8096,11 @@
       <c r="C464" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="465" spans="1:3" ht="21">
+      <c r="D464" s="7">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" ht="21">
       <c r="A465" s="5" t="s">
         <v>393</v>
       </c>
@@ -6894,8 +8110,11 @@
       <c r="C465" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="466" spans="1:3" ht="21">
+      <c r="D465" s="7">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" ht="21">
       <c r="A466" s="5" t="s">
         <v>393</v>
       </c>
@@ -6905,8 +8124,11 @@
       <c r="C466" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="467" spans="1:3" ht="21">
+      <c r="D466" s="7">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" ht="21">
       <c r="A467" s="5" t="s">
         <v>393</v>
       </c>
@@ -6916,8 +8138,11 @@
       <c r="C467" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="468" spans="1:3" ht="21">
+      <c r="D467" s="7">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" ht="21">
       <c r="A468" s="5" t="s">
         <v>393</v>
       </c>
@@ -6927,8 +8152,11 @@
       <c r="C468" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="469" spans="1:3" ht="21">
+      <c r="D468" s="7">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" ht="21">
       <c r="A469" s="5" t="s">
         <v>393</v>
       </c>
@@ -6938,17 +8166,20 @@
       <c r="C469" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="470" spans="1:3" ht="21">
+      <c r="D469" s="7">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" ht="21">
       <c r="B470" s="7"/>
       <c r="C470" s="4"/>
     </row>
-    <row r="471" spans="1:3" ht="21">
+    <row r="471" spans="1:4" ht="21">
       <c r="A471" s="8"/>
       <c r="B471" s="7"/>
       <c r="C471" s="4"/>
     </row>
-    <row r="472" spans="1:3" ht="21">
+    <row r="472" spans="1:4" ht="21">
       <c r="A472" s="5" t="s">
         <v>453</v>
       </c>
@@ -6958,8 +8189,11 @@
       <c r="C472" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="473" spans="1:3" ht="21">
+      <c r="D472" s="7">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" ht="21">
       <c r="A473" s="5" t="s">
         <v>453</v>
       </c>
@@ -6969,8 +8203,11 @@
       <c r="C473" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="474" spans="1:3" ht="21">
+      <c r="D473" s="7">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" ht="21">
       <c r="A474" s="5" t="s">
         <v>453</v>
       </c>
@@ -6980,8 +8217,11 @@
       <c r="C474" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="475" spans="1:3" ht="21">
+      <c r="D474" s="7">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" ht="21">
       <c r="A475" s="5" t="s">
         <v>453</v>
       </c>
@@ -6991,8 +8231,11 @@
       <c r="C475" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="476" spans="1:3" ht="21">
+      <c r="D475" s="7">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" ht="21">
       <c r="A476" s="5" t="s">
         <v>453</v>
       </c>
@@ -7002,8 +8245,11 @@
       <c r="C476" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="477" spans="1:3" ht="21">
+      <c r="D476" s="7">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" ht="21">
       <c r="A477" s="5" t="s">
         <v>453</v>
       </c>
@@ -7013,8 +8259,11 @@
       <c r="C477" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="478" spans="1:3" ht="21">
+      <c r="D477" s="7">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" ht="21">
       <c r="A478" s="5" t="s">
         <v>453</v>
       </c>
@@ -7024,8 +8273,11 @@
       <c r="C478" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="479" spans="1:3" ht="21">
+      <c r="D478" s="7">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" ht="21">
       <c r="A479" s="5" t="s">
         <v>453</v>
       </c>
@@ -7035,8 +8287,11 @@
       <c r="C479" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="480" spans="1:3" ht="21">
+      <c r="D479" s="7">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" ht="21">
       <c r="A480" s="5" t="s">
         <v>453</v>
       </c>
@@ -7046,8 +8301,11 @@
       <c r="C480" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="481" spans="1:3" ht="21">
+      <c r="D480" s="7">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" ht="21">
       <c r="A481" s="5" t="s">
         <v>453</v>
       </c>
@@ -7056,6 +8314,9 @@
       </c>
       <c r="C481" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="D481" s="7">
+        <v>449</v>
       </c>
     </row>
   </sheetData>

--- a/DSA-Questions.xlsx
+++ b/DSA-Questions.xlsx
@@ -1432,7 +1432,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1502,6 +1502,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1530,7 +1537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1555,6 +1562,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1869,7 +1879,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1880,7 +1890,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -1969,8 +1979,8 @@
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>4</v>
+      <c r="C9" s="12" t="s">
+        <v>466</v>
       </c>
       <c r="D9" s="7">
         <v>4</v>

--- a/DSA-Questions.xlsx
+++ b/DSA-Questions.xlsx
@@ -1879,7 +1879,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1890,7 +1890,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -1965,8 +1965,8 @@
       <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>4</v>
+      <c r="C8" s="12" t="s">
+        <v>466</v>
       </c>
       <c r="D8" s="7">
         <v>3</v>

--- a/DSA-Questions.xlsx
+++ b/DSA-Questions.xlsx
@@ -1879,7 +1879,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1889,8 +1889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -1993,8 +1993,8 @@
       <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>4</v>
+      <c r="C10" s="11" t="s">
+        <v>466</v>
       </c>
       <c r="D10" s="7">
         <v>5</v>

--- a/DSA-Questions.xlsx
+++ b/DSA-Questions.xlsx
@@ -1879,7 +1879,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1890,7 +1890,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -2021,8 +2021,8 @@
       <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>4</v>
+      <c r="C12" s="11" t="s">
+        <v>466</v>
       </c>
       <c r="D12" s="7">
         <v>7</v>
